--- a/biology/Botanique/Dryopteris_expansa/Dryopteris_expansa.xlsx
+++ b/biology/Botanique/Dryopteris_expansa/Dryopteris_expansa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopteris expansa, de noms communs Dryoptère dressée, Dryoptéris étalé ou Dryoptéris élargi[2], est une espèce de fougères du genre Dryopteris appartenant à la famille des Dryopteridaceae que l'on trouve en Eurasie (sauf dans ses zones méridionales[3]), jusqu'à l'Altaï, au Groenland et en Amérique du Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopteris expansa, de noms communs Dryoptère dressée, Dryoptéris étalé ou Dryoptéris élargi, est une espèce de fougères du genre Dryopteris appartenant à la famille des Dryopteridaceae que l'on trouve en Eurasie (sauf dans ses zones méridionales), jusqu'à l'Altaï, au Groenland et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nephrodium expansum C.Presl[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nephrodium expansum C.Presl
 Dryopteris assimilis S.Walker
 Dryopteris dilatata (Hoffmann) A.Gray subsp. americana (Fischer) Hultén</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce diploïde mesure en moyenne 30 cm de largeur sur 90 cm de hauteur. Elle est caractérisée par ses frondes dressées[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce diploïde mesure en moyenne 30 cm de largeur sur 90 cm de hauteur. Elle est caractérisée par ses frondes dressées,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryopteris expansa croît dans les sous-bois humides et sur les pentes montagneuses rocheuses, entre 50 mètres et 1 500 mètres d'altitude.
 </t>
